--- a/data/raw/applicants_data/2015_2_b2.xlsx
+++ b/data/raw/applicants_data/2015_2_b2.xlsx
@@ -450,13 +450,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C5" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>90</v>
+      </c>
+      <c r="D6" t="n">
         <v>75</v>
-      </c>
-      <c r="C6" t="n">
-        <v>45</v>
-      </c>
-      <c r="D6" t="n">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
